--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130834406</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130834393</v>
       </c>
       <c r="B3" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
         <v>130834381</v>
       </c>
       <c r="B4" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>130834396</v>
       </c>
       <c r="B5" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>130834394</v>
       </c>
       <c r="B6" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         <v>130834375</v>
       </c>
       <c r="B7" t="n">
-        <v>91767</v>
+        <v>91771</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B8" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,34 +1276,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R8" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1362,10 +1370,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B9" t="n">
-        <v>57880</v>
+        <v>91808</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,42 +1381,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R9" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1470,7 +1470,7 @@
         <v>130834376</v>
       </c>
       <c r="B10" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
         <v>130834378</v>
       </c>
       <c r="B11" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
         <v>130834395</v>
       </c>
       <c r="B12" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1762,7 +1762,7 @@
         <v>130834392</v>
       </c>
       <c r="B13" t="n">
-        <v>92263</v>
+        <v>92267</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>130834379</v>
       </c>
       <c r="B14" t="n">
-        <v>91804</v>
+        <v>91808</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1954,32 +1954,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130834380</v>
+        <v>130834374</v>
       </c>
       <c r="B15" t="n">
-        <v>91804</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424490</v>
+        <v>424489</v>
       </c>
       <c r="R15" t="n">
-        <v>6711347</v>
+        <v>6711391</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2051,32 +2051,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130834374</v>
+        <v>130834380</v>
       </c>
       <c r="B16" t="n">
-        <v>91767</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424489</v>
+        <v>424490</v>
       </c>
       <c r="R16" t="n">
-        <v>6711391</v>
+        <v>6711347</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -1070,32 +1070,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130834394</v>
+        <v>130834375</v>
       </c>
       <c r="B6" t="n">
-        <v>92267</v>
+        <v>91771</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424506</v>
+        <v>424498</v>
       </c>
       <c r="R6" t="n">
-        <v>6711370</v>
+        <v>6711351</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1149,7 +1149,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1168,32 +1167,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130834375</v>
+        <v>130834394</v>
       </c>
       <c r="B7" t="n">
-        <v>91771</v>
+        <v>92267</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1203,10 +1202,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424498</v>
+        <v>424506</v>
       </c>
       <c r="R7" t="n">
-        <v>6711351</v>
+        <v>6711370</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1247,6 +1246,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -1070,32 +1070,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130834375</v>
+        <v>130834394</v>
       </c>
       <c r="B6" t="n">
-        <v>91771</v>
+        <v>92267</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424498</v>
+        <v>424506</v>
       </c>
       <c r="R6" t="n">
-        <v>6711351</v>
+        <v>6711370</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1149,6 +1149,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1167,32 +1168,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130834394</v>
+        <v>130834375</v>
       </c>
       <c r="B7" t="n">
-        <v>92267</v>
+        <v>91771</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1202,10 +1203,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424506</v>
+        <v>424498</v>
       </c>
       <c r="R7" t="n">
-        <v>6711370</v>
+        <v>6711351</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1246,7 +1247,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,42 +1276,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R8" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1370,10 +1362,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B9" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,34 +1373,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R9" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1954,32 +1954,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130834374</v>
+        <v>130834380</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>91808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424489</v>
+        <v>424490</v>
       </c>
       <c r="R15" t="n">
-        <v>6711391</v>
+        <v>6711347</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2051,32 +2051,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130834380</v>
+        <v>130834374</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424490</v>
+        <v>424489</v>
       </c>
       <c r="R16" t="n">
-        <v>6711347</v>
+        <v>6711391</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B8" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,34 +1276,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R8" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1362,10 +1370,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,42 +1381,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R9" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B4" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R4" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,6 +954,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -972,32 +973,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B5" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1007,10 +1008,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R5" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1051,7 +1052,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1070,32 +1070,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130834394</v>
+        <v>130834375</v>
       </c>
       <c r="B6" t="n">
-        <v>92267</v>
+        <v>91771</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424506</v>
+        <v>424498</v>
       </c>
       <c r="R6" t="n">
-        <v>6711370</v>
+        <v>6711351</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1149,7 +1149,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1168,32 +1167,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130834375</v>
+        <v>130834394</v>
       </c>
       <c r="B7" t="n">
-        <v>91771</v>
+        <v>92267</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1203,10 +1202,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424498</v>
+        <v>424506</v>
       </c>
       <c r="R7" t="n">
-        <v>6711351</v>
+        <v>6711370</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1247,6 +1246,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,42 +1276,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R8" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1370,10 +1362,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B9" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,34 +1373,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R9" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130834376</v>
+        <v>130834378</v>
       </c>
       <c r="B10" t="n">
         <v>91808</v>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424488</v>
+        <v>424513</v>
       </c>
       <c r="R10" t="n">
-        <v>6711452</v>
+        <v>6711372</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130834378</v>
+        <v>130834376</v>
       </c>
       <c r="B11" t="n">
         <v>91808</v>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424513</v>
+        <v>424488</v>
       </c>
       <c r="R11" t="n">
-        <v>6711372</v>
+        <v>6711452</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130834395</v>
+        <v>130834392</v>
       </c>
       <c r="B12" t="n">
         <v>92267</v>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>424495</v>
+        <v>424488</v>
       </c>
       <c r="R12" t="n">
-        <v>6711339</v>
+        <v>6711452</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130834392</v>
+        <v>130834395</v>
       </c>
       <c r="B13" t="n">
         <v>92267</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>424488</v>
+        <v>424495</v>
       </c>
       <c r="R13" t="n">
-        <v>6711452</v>
+        <v>6711339</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1954,32 +1954,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130834380</v>
+        <v>130834374</v>
       </c>
       <c r="B15" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424490</v>
+        <v>424489</v>
       </c>
       <c r="R15" t="n">
-        <v>6711347</v>
+        <v>6711391</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2051,32 +2051,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130834374</v>
+        <v>130834380</v>
       </c>
       <c r="B16" t="n">
-        <v>91771</v>
+        <v>91808</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424489</v>
+        <v>424490</v>
       </c>
       <c r="R16" t="n">
-        <v>6711391</v>
+        <v>6711347</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY16"/>
+  <dimension ref="A1:AY19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B4" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R4" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,7 +954,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -973,32 +972,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1008,10 +1007,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R5" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1052,6 +1051,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130834378</v>
+        <v>130834376</v>
       </c>
       <c r="B10" t="n">
         <v>91808</v>
@@ -1502,10 +1502,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>424513</v>
+        <v>424488</v>
       </c>
       <c r="R10" t="n">
-        <v>6711372</v>
+        <v>6711452</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130834376</v>
+        <v>130834378</v>
       </c>
       <c r="B11" t="n">
         <v>91808</v>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424488</v>
+        <v>424513</v>
       </c>
       <c r="R11" t="n">
-        <v>6711452</v>
+        <v>6711372</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130834392</v>
+        <v>130834395</v>
       </c>
       <c r="B12" t="n">
         <v>92267</v>
@@ -1696,10 +1696,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>424488</v>
+        <v>424495</v>
       </c>
       <c r="R12" t="n">
-        <v>6711452</v>
+        <v>6711339</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130834395</v>
+        <v>130834392</v>
       </c>
       <c r="B13" t="n">
         <v>92267</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>424495</v>
+        <v>424488</v>
       </c>
       <c r="R13" t="n">
-        <v>6711339</v>
+        <v>6711452</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2146,6 +2146,327 @@
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131121921</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>424453</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6711513</v>
+      </c>
+      <c r="S17" t="n">
+        <v>25</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>2st skrämdes upp ur skogen när jag passerade</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131121920</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>424416</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6711366</v>
+      </c>
+      <c r="S18" t="n">
+        <v>25</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131122018</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Nordvallen, Dlr</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>424425</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6711334</v>
+      </c>
+      <c r="S19" t="n">
+        <v>25</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Malung-Sälen</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Malung</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Gammalt bohål 2m upp i gran</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Moa Björnberg dillner</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B4" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R4" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,6 +954,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -972,32 +973,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B5" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1007,10 +1008,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R5" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1051,7 +1052,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1954,32 +1954,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130834374</v>
+        <v>130834380</v>
       </c>
       <c r="B15" t="n">
-        <v>91771</v>
+        <v>91808</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5447</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>424489</v>
+        <v>424490</v>
       </c>
       <c r="R15" t="n">
-        <v>6711391</v>
+        <v>6711347</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2051,32 +2051,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130834380</v>
+        <v>130834374</v>
       </c>
       <c r="B16" t="n">
-        <v>91808</v>
+        <v>91771</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>424490</v>
+        <v>424489</v>
       </c>
       <c r="R16" t="n">
-        <v>6711347</v>
+        <v>6711391</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B4" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R4" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,7 +954,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -973,32 +972,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1008,10 +1007,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R5" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1052,6 +1051,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1070,32 +1070,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130834375</v>
+        <v>130834394</v>
       </c>
       <c r="B6" t="n">
-        <v>91771</v>
+        <v>92267</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424498</v>
+        <v>424506</v>
       </c>
       <c r="R6" t="n">
-        <v>6711351</v>
+        <v>6711370</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1149,6 +1149,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1167,32 +1168,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130834394</v>
+        <v>130834375</v>
       </c>
       <c r="B7" t="n">
-        <v>92267</v>
+        <v>91771</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1202,10 +1203,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424506</v>
+        <v>424498</v>
       </c>
       <c r="R7" t="n">
-        <v>6711370</v>
+        <v>6711351</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1246,7 +1247,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B4" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R4" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,6 +954,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -972,32 +973,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B5" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1007,10 +1008,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R5" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1051,7 +1052,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B8" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,34 +1276,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R8" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1362,10 +1370,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>91808</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,42 +1381,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R9" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1564,32 +1564,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130834378</v>
+        <v>130834392</v>
       </c>
       <c r="B11" t="n">
-        <v>91808</v>
+        <v>92267</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424513</v>
+        <v>424488</v>
       </c>
       <c r="R11" t="n">
-        <v>6711372</v>
+        <v>6711452</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1643,6 +1643,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1661,32 +1662,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130834395</v>
+        <v>130834378</v>
       </c>
       <c r="B12" t="n">
-        <v>92267</v>
+        <v>91808</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1696,10 +1697,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>424495</v>
+        <v>424513</v>
       </c>
       <c r="R12" t="n">
-        <v>6711339</v>
+        <v>6711372</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1740,7 +1741,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130834392</v>
+        <v>130834395</v>
       </c>
       <c r="B13" t="n">
         <v>92267</v>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>424488</v>
+        <v>424495</v>
       </c>
       <c r="R13" t="n">
-        <v>6711452</v>
+        <v>6711339</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>

--- a/artfynd/A 1482-2026 artfynd.xlsx
+++ b/artfynd/A 1482-2026 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130834406</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130834393</v>
       </c>
       <c r="B3" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -875,32 +875,32 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130834396</v>
+        <v>130834381</v>
       </c>
       <c r="B4" t="n">
-        <v>92267</v>
+        <v>91809</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>424484</v>
+        <v>424485</v>
       </c>
       <c r="R4" t="n">
-        <v>6711318</v>
+        <v>6711319</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -954,7 +954,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -973,32 +972,32 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130834381</v>
+        <v>130834396</v>
       </c>
       <c r="B5" t="n">
-        <v>91808</v>
+        <v>92268</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1008,10 +1007,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>424485</v>
+        <v>424484</v>
       </c>
       <c r="R5" t="n">
-        <v>6711319</v>
+        <v>6711318</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1052,6 +1051,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1070,32 +1070,32 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130834394</v>
+        <v>130834375</v>
       </c>
       <c r="B6" t="n">
-        <v>92267</v>
+        <v>91772</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>424506</v>
+        <v>424498</v>
       </c>
       <c r="R6" t="n">
-        <v>6711370</v>
+        <v>6711351</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1149,7 +1149,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1168,32 +1167,32 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130834375</v>
+        <v>130834394</v>
       </c>
       <c r="B7" t="n">
-        <v>91771</v>
+        <v>92268</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>1209</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1203,10 +1202,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>424498</v>
+        <v>424506</v>
       </c>
       <c r="R7" t="n">
-        <v>6711351</v>
+        <v>6711370</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1247,6 +1246,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>130834387</v>
+        <v>130834377</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>91809</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1276,42 +1276,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>424517</v>
+        <v>424489</v>
       </c>
       <c r="R8" t="n">
-        <v>6711378</v>
+        <v>6711391</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1370,10 +1362,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>130834377</v>
+        <v>130834387</v>
       </c>
       <c r="B9" t="n">
-        <v>91808</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1381,34 +1373,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Nordvallen, Dlr</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>424489</v>
+        <v>424517</v>
       </c>
       <c r="R9" t="n">
-        <v>6711391</v>
+        <v>6711378</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1470,7 +1470,7 @@
         <v>130834376</v>
       </c>
       <c r="B10" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,32 +1564,32 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130834392</v>
+        <v>130834378</v>
       </c>
       <c r="B11" t="n">
-        <v>92267</v>
+        <v>91809</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hermanssonia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P. Karst.) Zmitr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>424488</v>
+        <v>424513</v>
       </c>
       <c r="R11" t="n">
-        <v>6711452</v>
+        <v>6711372</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1643,7 +1643,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1662,32 +1661,32 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130834378</v>
+        <v>130834395</v>
       </c>
       <c r="B12" t="n">
-        <v>91808</v>
+        <v>92268</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Hermanssonia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(P. Karst.) Zmitr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1697,10 +1696,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>424513</v>
+        <v>424495</v>
       </c>
       <c r="R12" t="n">
-        <v>6711372</v>
+        <v>6711339</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1741,6 +1740,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1759,10 +1759,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130834395</v>
+        <v>130834392</v>
       </c>
       <c r="B13" t="n">
-        <v>92267</v>
+        <v>92268</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>424495</v>
+        <v>424488</v>
       </c>
       <c r="R13" t="n">
-        <v>6711339</v>
+        <v>6711452</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1860,7 +1860,7 @@
         <v>130834379</v>
       </c>
       <c r="B14" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         <v>130834380</v>
       </c>
       <c r="B15" t="n">
-        <v>91808</v>
+        <v>91809</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>130834374</v>
       </c>
       <c r="B16" t="n">
-        <v>91771</v>
+        <v>91772</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
